--- a/Ver2/Notion data/Danh mục dịch vụ.xlsx
+++ b/Ver2/Notion data/Danh mục dịch vụ.xlsx
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>[{'id': '44b8a0ba-550f-4914-95fc-43e4096d9e32'}, {'id': '40468be2-f999-4e41-a390-18551177770e'}, {'id': 'd45b4378-4c1d-401d-9988-bfdd574be03d'}, {'id': '3edfdf98-7aa0-4a76-9216-99de6a361067'}, {'id': 'a68948b4-6055-443a-85d5-508e8f8f72f0'}, {'id': '809f99c9-8a86-448a-b8a7-107c756853d1'}]</t>
+          <t>[{'id': '44b8a0ba-550f-4914-95fc-43e4096d9e32'}, {'id': '40468be2-f999-4e41-a390-18551177770e'}, {'id': 'd45b4378-4c1d-401d-9988-bfdd574be03d'}, {'id': '3edfdf98-7aa0-4a76-9216-99de6a361067'}, {'id': 'a68948b4-6055-443a-85d5-508e8f8f72f0'}, {'id': '809f99c9-8a86-448a-b8a7-107c756853d1'}, {'id': 'a3bb4f64-a8b3-4473-9a72-4afc8ec81402'}, {'id': '9f1ec962-eb0c-47e8-bfed-067c6db89b62'}]</t>
         </is>
       </c>
       <c r="AB4" t="b">
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="AF4" t="n">
-        <v>10900000</v>
+        <v>13100000</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
